--- a/FHIR-R4/IT_Infrastructure_ITI_Technical_Framework_Comment_Form_mACM_Arsenal.xlsx
+++ b/FHIR-R4/IT_Infrastructure_ITI_Technical_Framework_Comment_Form_mACM_Arsenal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gregorio Canal\Google Drive\IHE\ITI\comments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\IT-Infrastructure\FHIR-R4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C54F7E-1FA5-4772-931D-BD6ED74D8FCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24AE698-6E8C-48E1-BE2F-D73E851DE24A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1440" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51" yWindow="489" windowWidth="17905" windowHeight="7782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comment Form" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="86">
   <si>
     <t>Priority</t>
   </si>
@@ -431,12 +431,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -520,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,21 +559,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,7 +613,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,51 +935,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="71.44140625" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.23046875" customWidth="1"/>
+    <col min="3" max="3" width="4.3046875" customWidth="1"/>
+    <col min="4" max="4" width="10.53515625" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="49.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" customWidth="1"/>
+    <col min="7" max="7" width="49.69140625" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" customWidth="1"/>
+    <col min="9" max="9" width="5.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="269.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="269.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:10" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -963,223 +1005,223 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>760</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.4">
+      <c r="A8" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="15">
         <v>784</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" s="16" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="15">
         <v>827</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="9">
         <v>831</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" s="20" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="19">
         <v>920</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:10" s="20" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A12" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="19">
         <v>967</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:10" s="20" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A13" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="19">
         <v>1028</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:10" s="20" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="19">
         <v>1040</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -1189,7 +1231,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1"/>
@@ -1199,7 +1241,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="4"/>
       <c r="C17" s="1"/>
@@ -1209,7 +1251,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="1"/>
@@ -1219,7 +1261,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
       <c r="C19" s="1"/>
@@ -1229,7 +1271,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
       <c r="C20" s="1"/>
@@ -1239,7 +1281,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
       <c r="C21" s="1"/>
@@ -1249,7 +1291,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1"/>
@@ -1259,7 +1301,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
       <c r="C23" s="1"/>
@@ -1269,7 +1311,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
       <c r="C24" s="1"/>
@@ -1279,7 +1321,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
       <c r="C25" s="1"/>
@@ -1289,7 +1331,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" s="1"/>
@@ -1299,7 +1341,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
       <c r="C27" s="1"/>
@@ -1309,7 +1351,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
       <c r="C28" s="1"/>
@@ -1319,7 +1361,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
       <c r="C29" s="1"/>
@@ -1329,7 +1371,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="1"/>
@@ -1339,7 +1381,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
       <c r="C31" s="1"/>
@@ -1349,7 +1391,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="1"/>
@@ -1359,7 +1401,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1"/>
@@ -1369,7 +1411,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
@@ -1379,7 +1421,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
@@ -1389,7 +1431,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
@@ -1399,7 +1441,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
@@ -1409,7 +1451,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
@@ -1419,7 +1461,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
@@ -1429,7 +1471,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
@@ -1439,7 +1481,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="4"/>
       <c r="C41" s="1"/>
@@ -1449,7 +1491,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
@@ -1459,7 +1501,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="4"/>
       <c r="C43" s="1"/>
@@ -1469,7 +1511,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
@@ -1479,7 +1521,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
@@ -1489,7 +1531,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
@@ -1499,7 +1541,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
@@ -1509,7 +1551,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
@@ -1519,7 +1561,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
@@ -1567,257 +1609,257 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="115.5546875" customWidth="1"/>
+    <col min="1" max="1" width="115.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1836,19 +1878,19 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>

--- a/FHIR-R4/IT_Infrastructure_ITI_Technical_Framework_Comment_Form_mACM_Arsenal.xlsx
+++ b/FHIR-R4/IT_Infrastructure_ITI_Technical_Framework_Comment_Form_mACM_Arsenal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\IT-Infrastructure\FHIR-R4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24AE698-6E8C-48E1-BE2F-D73E851DE24A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542137B9-3743-487B-B8D8-6EDA2B41A167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51" yWindow="489" windowWidth="17905" windowHeight="7782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="343" yWindow="831" windowWidth="31380" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comment Form" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
   <si>
     <t>Priority</t>
   </si>
@@ -431,24 +431,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -538,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -565,35 +553,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1005,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>63</v>
       </c>
@@ -1022,14 +993,14 @@
       <c r="F6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
@@ -1051,51 +1022,51 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:10" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="9">
         <v>784</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" s="16" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="9">
         <v>827</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" s="11" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
@@ -1111,113 +1082,113 @@
       <c r="E10" s="9">
         <v>831</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="11" t="s">
         <v>74</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:10" s="20" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:10" s="10" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="9">
         <v>920</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="20" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="9">
         <v>967</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="20" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:10" s="10" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="9">
         <v>1028</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:10" s="10" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="9">
         <v>1040</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="9" t="s">
         <v>67</v>
       </c>
     </row>
